--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-mexico\InputData\trans\EVCRSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6493CFD-7C39-4D67-A92E-8BFC2549E335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DOE Data and Calcs" sheetId="3" r:id="rId2"/>
-    <sheet name="EVCRSbRIC" sheetId="2" r:id="rId3"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="4" r:id="rId3"/>
+    <sheet name="EVCRSbRIC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
   <si>
     <t>EVCRSbRIC EV Charger Revenue Share by Recipient ISIC Code</t>
   </si>
@@ -239,12 +239,24 @@
   </si>
   <si>
     <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>EV Chargers</t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>Mexico ISIC Groupings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -273,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -313,6 +331,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,22 +646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0DBC6-BBF6-4FFA-8935-A589DD9D6AFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,32 +669,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{8781B4B3-37D5-4572-8D6F-14CD46093886}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -683,25 +702,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BEAC16-ACE6-4F2E-B342-922D366B3EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -715,7 +734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -730,7 +749,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -745,7 +764,7 @@
         <v>0.32499999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -760,7 +779,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -775,22 +794,22 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -804,7 +823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -819,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -834,7 +853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -855,21 +874,662 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098445D0-3D89-4FAB-95C7-941A2E10FAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>'DOE Data and Calcs'!B14</f>
+        <v>0.34210526315789469</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>'DOE Data and Calcs'!B13</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>'DOE Data and Calcs'!B15</f>
+        <v>5.2631578947368425E-2</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="43" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="43" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1000,137 +1660,176 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!B1)</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!C1)</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!D1)</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!E1)</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!F1)</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!G1)</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!H1)</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!I1)</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!J1)</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!K1)</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!L1)</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!M1)</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!N1)</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!O1)</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!P1)</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!Q1)</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!R1)</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!S1)</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!T1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>'DOE Data and Calcs'!B14</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!Y1)</f>
         <v>0.34210526315789469</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>'DOE Data and Calcs'!B13</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AC1)</f>
         <v>0.60526315789473684</v>
       </c>
       <c r="AD2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>'DOE Data and Calcs'!B15</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AL1)</f>
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="AM2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AP1)</f>
         <v>0</v>
       </c>
       <c r="AQ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,EVCRSbRIC!AQ1)</f>
         <v>0</v>
       </c>
     </row>
